--- a/Customers.xlsx
+++ b/Customers.xlsx
@@ -1,101 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DATA\customer_manager\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12570"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Secondary Phone Number</t>
-  </si>
-  <si>
-    <t>Tax Status</t>
-  </si>
-  <si>
-    <t>Fees Status</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>hesham mohsen</t>
-  </si>
-  <si>
-    <t>123 something street</t>
-  </si>
-  <si>
-    <t>october</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>012345698</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>omar elshayeb</t>
-  </si>
-  <si>
-    <t>321 some street</t>
-  </si>
-  <si>
-    <t>015555666</t>
-  </si>
-  <si>
-    <t>013332222</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,22 +46,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,99 +386,579 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col width="15.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="19.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="7.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="24.42578125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9.85546875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="11" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="10.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Secondary Phone Number</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Tax Status</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Fees Status</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>hesham mohsen</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>123 something street</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>october</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>012345698</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>omar elshayeb</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>321 some street</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>october</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>015555666</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>013332222</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sha3bola</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sdaad</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sdasda</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5151515115</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3232233223</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>dsasadsaasd</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sha3bola</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdaad</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sdasda</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5151515115</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3232233223</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>dsasadsaasd</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hesham jjjj</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>123 something street</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>october</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>012345698</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>omar elshayeb</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>321 some street</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>october</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>015555666</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>013332222</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sha3bola</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sdaad</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sdasda</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5151515115</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3232233223</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>dsasadsaasd</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hesham mohsen</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>123 something street</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>october</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>012345698</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hesham mohsen</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>123 something street</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>october</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>012345698</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>omar elshayeb</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>321 some street</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>october</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>015555666</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>013332222</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>hesham mohsen</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>123 something street</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>october</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>012345698</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Customers.xlsx
+++ b/Customers.xlsx
@@ -1,37 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DATA\customer_manager\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>phone2</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Late Tax Statement</t>
+  </si>
+  <si>
+    <t>dssd</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>dasdas</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>201111111111</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +104,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,182 +432,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="22.7109375" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>phone</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>phone2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>tax</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>dssd</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sds</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>fdsf</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5455</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>223232</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Late Tax Statement</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dsad</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>dasdas</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>12</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>sad</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>